--- a/main/paso1.xlsx
+++ b/main/paso1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,117 +441,202 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Temp</t>
+          <t>T-ene</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>T-feb</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>T-mar</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>T-abr</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>T-may</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>T-jun</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>T-jul</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>T-ago</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>T-sep</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>T-oct</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>T-nov</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>T-Dic</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>precio/vuelo</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>links</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>link_nocturno</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>link_monumentos</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>link_acuaticos</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>link_museos</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>link_spas</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>link_diversion</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>link_naturaleza</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>vida_nocturna</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>monumentos</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>deportes_agua</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>museos</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>spas</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>diversion</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>naturaleza</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>poblacion</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>tamaño</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>buffet</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>americana</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>asiatica</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>italiana</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>coste</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>alquiler</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>vida+alquiler</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>comestibles</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>restaurantes</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>calculo_viaje</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>presupuesto</t>
         </is>
       </c>
     </row>
@@ -562,77 +647,142 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>21</v>
+      </c>
+      <c r="K2" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="M2" t="n">
         <v>7.6</v>
       </c>
-      <c r="C2" t="n">
+      <c r="N2" t="n">
         <v>196</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g294446-Activities-c42-Tirana_Tirana_County.html</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294446-Activities-c20-Tirana_Tirana_County.html</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294446-Activities-c47-Tirana_Tirana_County.html</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294446-Activities-c55-Tirana_Tirana_County.html</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294446-Activities-c49-Tirana_Tirana_County.html</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294446-Activities-c40-Tirana_Tirana_County.html</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294446-Activities-c56-Tirana_Tirana_County.html</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294446-Activities-c57-Tirana_Tirana_County.html</t>
+        </is>
+      </c>
+      <c r="W2" t="n">
         <v>57</v>
       </c>
-      <c r="F2" t="n">
+      <c r="X2" t="n">
         <v>30</v>
       </c>
-      <c r="G2" t="n">
+      <c r="Y2" t="n">
         <v>27</v>
       </c>
-      <c r="H2" t="n">
+      <c r="Z2" t="n">
         <v>14</v>
       </c>
-      <c r="I2" t="n">
+      <c r="AA2" t="n">
         <v>23</v>
       </c>
-      <c r="J2" t="n">
+      <c r="AB2" t="n">
         <v>18</v>
       </c>
-      <c r="K2" t="n">
+      <c r="AC2" t="n">
         <v>7</v>
       </c>
-      <c r="L2" t="n">
+      <c r="AD2" t="n">
         <v>494000</v>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>pequeña</t>
         </is>
       </c>
-      <c r="N2" t="n">
+      <c r="AF2" t="n">
         <v>34</v>
       </c>
-      <c r="O2" t="n">
+      <c r="AG2" t="n">
         <v>32</v>
       </c>
-      <c r="P2" t="n">
+      <c r="AH2" t="n">
         <v>27</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="AI2" t="n">
         <v>316</v>
       </c>
-      <c r="R2" t="n">
+      <c r="AJ2" t="n">
         <v>36.17</v>
       </c>
-      <c r="S2" t="n">
+      <c r="AK2" t="n">
         <v>8.210000000000001</v>
       </c>
-      <c r="T2" t="n">
+      <c r="AL2" t="n">
         <v>22.74</v>
       </c>
-      <c r="U2" t="n">
+      <c r="AM2" t="n">
         <v>28.59</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AN2" t="n">
         <v>29.34</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AO2" t="n">
         <v>217.02</v>
-      </c>
-      <c r="X2" t="n">
-        <v>413.02</v>
       </c>
     </row>
     <row r="3">
@@ -642,77 +792,142 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M3" t="n">
         <v>4.2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="N3" t="n">
         <v>155</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g190454-Activities-c42-Vienna.html</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190454-Activities-c20-Vienna.html</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190454-Activities-c47-Vienna.html</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190454-Activities-c55-Vienna.html</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190454-Activities-c49-Vienna.html</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190454-Activities-c40-Vienna.html</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190454-Activities-c56-Vienna.html</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190454-Activities-c57-Vienna.html</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
         <v>119</v>
       </c>
-      <c r="F3" t="n">
+      <c r="X3" t="n">
         <v>295</v>
       </c>
-      <c r="G3" t="n">
+      <c r="Y3" t="n">
         <v>9</v>
       </c>
-      <c r="H3" t="n">
+      <c r="Z3" t="n">
         <v>119</v>
       </c>
-      <c r="I3" t="n">
+      <c r="AA3" t="n">
         <v>41</v>
       </c>
-      <c r="J3" t="n">
+      <c r="AB3" t="n">
         <v>106</v>
       </c>
-      <c r="K3" t="n">
+      <c r="AC3" t="n">
         <v>48</v>
       </c>
-      <c r="L3" t="n">
+      <c r="AD3" t="n">
         <v>1897000</v>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>grande</t>
         </is>
       </c>
-      <c r="N3" t="n">
+      <c r="AF3" t="n">
         <v>185</v>
       </c>
-      <c r="O3" t="n">
+      <c r="AG3" t="n">
         <v>116</v>
       </c>
-      <c r="P3" t="n">
+      <c r="AH3" t="n">
         <v>472</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="AI3" t="n">
         <v>523</v>
       </c>
-      <c r="R3" t="n">
+      <c r="AJ3" t="n">
         <v>71.79000000000001</v>
       </c>
-      <c r="S3" t="n">
+      <c r="AK3" t="n">
         <v>27.63</v>
       </c>
-      <c r="T3" t="n">
+      <c r="AL3" t="n">
         <v>50.58</v>
       </c>
-      <c r="U3" t="n">
+      <c r="AM3" t="n">
         <v>65.63</v>
       </c>
-      <c r="V3" t="n">
+      <c r="AN3" t="n">
         <v>70.08</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AO3" t="n">
         <v>430.74</v>
-      </c>
-      <c r="X3" t="n">
-        <v>585.74</v>
       </c>
     </row>
     <row r="4">
@@ -722,77 +937,142 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M4" t="n">
         <v>-3.9</v>
       </c>
-      <c r="C4" t="n">
+      <c r="N4" t="n">
         <v>1943</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g294448-Activities-c42-Minsk.html</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294448-Activities-c20-Minsk.html</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294448-Activities-c47-Minsk.html</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294448-Activities-c55-Minsk.html</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294448-Activities-c49-Minsk.html</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294448-Activities-c40-Minsk.html</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294448-Activities-c56-Minsk.html</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294448-Activities-c57-Minsk.html</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
         <v>36</v>
       </c>
-      <c r="F4" t="n">
+      <c r="X4" t="n">
         <v>68</v>
       </c>
-      <c r="G4" t="n">
+      <c r="Y4" t="n">
         <v>6</v>
       </c>
-      <c r="H4" t="n">
+      <c r="Z4" t="n">
         <v>45</v>
       </c>
-      <c r="I4" t="n">
+      <c r="AA4" t="n">
         <v>20</v>
       </c>
-      <c r="J4" t="n">
+      <c r="AB4" t="n">
         <v>64</v>
       </c>
-      <c r="K4" t="n">
+      <c r="AC4" t="n">
         <v>17</v>
       </c>
-      <c r="L4" t="n">
+      <c r="AD4" t="n">
         <v>1975000</v>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>grande</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="AF4" t="n">
         <v>71</v>
       </c>
-      <c r="O4" t="n">
+      <c r="AG4" t="n">
         <v>78</v>
       </c>
-      <c r="P4" t="n">
+      <c r="AH4" t="n">
         <v>65</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="AI4" t="n">
         <v>124</v>
       </c>
-      <c r="R4" t="n">
+      <c r="AJ4" t="n">
         <v>33.12</v>
       </c>
-      <c r="S4" t="n">
+      <c r="AK4" t="n">
         <v>9.960000000000001</v>
       </c>
-      <c r="T4" t="n">
+      <c r="AL4" t="n">
         <v>22</v>
       </c>
-      <c r="U4" t="n">
+      <c r="AM4" t="n">
         <v>27.77</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AN4" t="n">
         <v>35.98</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AO4" t="n">
         <v>198.72</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2141.72</v>
       </c>
     </row>
     <row r="5">
@@ -802,77 +1082,142 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="M5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
+      <c r="N5" t="n">
         <v>233</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g294452-Activities-c42-Sofia_Sofia_Region.html</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294452-Activities-c20-Sofia_Sofia_Region.html</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294452-Activities-c47-Sofia_Sofia_Region.html</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294452-Activities-c55-Sofia_Sofia_Region.html</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294452-Activities-c49-Sofia_Sofia_Region.html</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294452-Activities-c40-Sofia_Sofia_Region.html</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294452-Activities-c56-Sofia_Sofia_Region.html</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294452-Activities-c57-Sofia_Sofia_Region.html</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
         <v>106</v>
       </c>
-      <c r="F5" t="n">
+      <c r="X5" t="n">
         <v>110</v>
       </c>
-      <c r="G5" t="n">
+      <c r="Y5" t="n">
         <v>7</v>
       </c>
-      <c r="H5" t="n">
+      <c r="Z5" t="n">
         <v>47</v>
       </c>
-      <c r="I5" t="n">
+      <c r="AA5" t="n">
         <v>47</v>
       </c>
-      <c r="J5" t="n">
+      <c r="AB5" t="n">
         <v>76</v>
       </c>
-      <c r="K5" t="n">
+      <c r="AC5" t="n">
         <v>26</v>
       </c>
-      <c r="L5" t="n">
+      <c r="AD5" t="n">
         <v>1236000</v>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>grande</t>
         </is>
       </c>
-      <c r="N5" t="n">
+      <c r="AF5" t="n">
         <v>51</v>
       </c>
-      <c r="O5" t="n">
+      <c r="AG5" t="n">
         <v>74</v>
       </c>
-      <c r="P5" t="n">
+      <c r="AH5" t="n">
         <v>57</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="AI5" t="n">
         <v>288</v>
       </c>
-      <c r="R5" t="n">
+      <c r="AJ5" t="n">
         <v>37.17</v>
       </c>
-      <c r="S5" t="n">
+      <c r="AK5" t="n">
         <v>9.15</v>
       </c>
-      <c r="T5" t="n">
+      <c r="AL5" t="n">
         <v>23.72</v>
       </c>
-      <c r="U5" t="n">
+      <c r="AM5" t="n">
         <v>31.15</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AN5" t="n">
         <v>29.86</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AO5" t="n">
         <v>223.02</v>
-      </c>
-      <c r="X5" t="n">
-        <v>456.02</v>
       </c>
     </row>
     <row r="6">
@@ -882,77 +1227,142 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="M6" t="n">
         <v>2.2</v>
       </c>
-      <c r="C6" t="n">
+      <c r="N6" t="n">
         <v>109</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g189541-Activities-c42-Copenhagen_Zealand.html</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189541-Activities-c20-Copenhagen_Zealand.html</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189541-Activities-c47-Copenhagen_Zealand.html</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189541-Activities-c55-Copenhagen_Zealand.html</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189541-Activities-c49-Copenhagen_Zealand.html</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189541-Activities-c40-Copenhagen_Zealand.html</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189541-Activities-c56-Copenhagen_Zealand.html</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189541-Activities-c57-Copenhagen_Zealand.html</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
         <v>125</v>
       </c>
-      <c r="F6" t="n">
+      <c r="X6" t="n">
         <v>174</v>
       </c>
-      <c r="G6" t="n">
+      <c r="Y6" t="n">
         <v>5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="Z6" t="n">
         <v>66</v>
       </c>
-      <c r="I6" t="n">
+      <c r="AA6" t="n">
         <v>41</v>
       </c>
-      <c r="J6" t="n">
+      <c r="AB6" t="n">
         <v>58</v>
       </c>
-      <c r="K6" t="n">
+      <c r="AC6" t="n">
         <v>46</v>
       </c>
-      <c r="L6" t="n">
+      <c r="AD6" t="n">
         <v>602481</v>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>pequeña</t>
         </is>
       </c>
-      <c r="N6" t="n">
+      <c r="AF6" t="n">
         <v>66</v>
       </c>
-      <c r="O6" t="n">
+      <c r="AG6" t="n">
         <v>98</v>
       </c>
-      <c r="P6" t="n">
+      <c r="AH6" t="n">
         <v>239</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="AI6" t="n">
         <v>282</v>
       </c>
-      <c r="R6" t="n">
+      <c r="AJ6" t="n">
         <v>81.38</v>
       </c>
-      <c r="S6" t="n">
+      <c r="AK6" t="n">
         <v>32.91</v>
       </c>
-      <c r="T6" t="n">
+      <c r="AL6" t="n">
         <v>58.11</v>
       </c>
-      <c r="U6" t="n">
+      <c r="AM6" t="n">
         <v>63.62</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AN6" t="n">
         <v>95.14</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AO6" t="n">
         <v>488.28</v>
-      </c>
-      <c r="X6" t="n">
-        <v>597.28</v>
       </c>
     </row>
     <row r="7">
@@ -962,77 +1372,142 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="M7" t="n">
         <v>1.2</v>
       </c>
-      <c r="C7" t="n">
+      <c r="N7" t="n">
         <v>230</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g274873-Activities-c42-Ljubljana_Upper_Carniola_Region.html</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274873-Activities-c20-Ljubljana_Upper_Carniola_Region.html</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274873-Activities-c47-Ljubljana_Upper_Carniola_Region.html</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274873-Activities-c55-Ljubljana_Upper_Carniola_Region.html</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274873-Activities-c49-Ljubljana_Upper_Carniola_Region.html</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274873-Activities-c40-Ljubljana_Upper_Carniola_Region.html</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274873-Activities-c56-Ljubljana_Upper_Carniola_Region.html</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274873-Activities-c57-Ljubljana_Upper_Carniola_Region.html</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
         <v>54</v>
       </c>
-      <c r="F7" t="n">
+      <c r="X7" t="n">
         <v>67</v>
       </c>
-      <c r="G7" t="n">
+      <c r="Y7" t="n">
         <v>6</v>
       </c>
-      <c r="H7" t="n">
+      <c r="Z7" t="n">
         <v>30</v>
       </c>
-      <c r="I7" t="n">
+      <c r="AA7" t="n">
         <v>24</v>
       </c>
-      <c r="J7" t="n">
+      <c r="AB7" t="n">
         <v>35</v>
       </c>
-      <c r="K7" t="n">
+      <c r="AC7" t="n">
         <v>10</v>
       </c>
-      <c r="L7" t="n">
+      <c r="AD7" t="n">
         <v>279631</v>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>pequeña</t>
         </is>
       </c>
-      <c r="N7" t="n">
+      <c r="AF7" t="n">
         <v>16</v>
       </c>
-      <c r="O7" t="n">
+      <c r="AG7" t="n">
         <v>20</v>
       </c>
-      <c r="P7" t="n">
+      <c r="AH7" t="n">
         <v>44</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="AI7" t="n">
         <v>93</v>
       </c>
-      <c r="R7" t="n">
+      <c r="AJ7" t="n">
         <v>52.51</v>
       </c>
-      <c r="S7" t="n">
+      <c r="AK7" t="n">
         <v>15.36</v>
       </c>
-      <c r="T7" t="n">
+      <c r="AL7" t="n">
         <v>34.67</v>
       </c>
-      <c r="U7" t="n">
+      <c r="AM7" t="n">
         <v>43.27</v>
       </c>
-      <c r="V7" t="n">
+      <c r="AN7" t="n">
         <v>43.83</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AO7" t="n">
         <v>315.06</v>
-      </c>
-      <c r="X7" t="n">
-        <v>545.0599999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1042,77 +1517,142 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M8" t="n">
         <v>-6.2</v>
       </c>
-      <c r="C8" t="n">
+      <c r="N8" t="n">
         <v>375</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g274958-Activities-c42-Tallinn_Harju_County.html</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274958-Activities-c20-Tallinn_Harju_County.html</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274958-Activities-c47-Tallinn_Harju_County.html</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274958-Activities-c55-Tallinn_Harju_County.html</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274958-Activities-c49-Tallinn_Harju_County.html</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274958-Activities-c40-Tallinn_Harju_County.html</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274958-Activities-c56-Tallinn_Harju_County.html</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274958-Activities-c57-Tallinn_Harju_County.html</t>
+        </is>
+      </c>
+      <c r="W8" t="n">
         <v>52</v>
       </c>
-      <c r="F8" t="n">
+      <c r="X8" t="n">
         <v>92</v>
       </c>
-      <c r="G8" t="n">
+      <c r="Y8" t="n">
         <v>18</v>
       </c>
-      <c r="H8" t="n">
+      <c r="Z8" t="n">
         <v>75</v>
       </c>
-      <c r="I8" t="n">
+      <c r="AA8" t="n">
         <v>23</v>
       </c>
-      <c r="J8" t="n">
+      <c r="AB8" t="n">
         <v>59</v>
       </c>
-      <c r="K8" t="n">
+      <c r="AC8" t="n">
         <v>25</v>
       </c>
-      <c r="L8" t="n">
+      <c r="AD8" t="n">
         <v>426538</v>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>pequeña</t>
         </is>
       </c>
-      <c r="N8" t="n">
+      <c r="AF8" t="n">
         <v>61</v>
       </c>
-      <c r="O8" t="n">
+      <c r="AG8" t="n">
         <v>45</v>
       </c>
-      <c r="P8" t="n">
+      <c r="AH8" t="n">
         <v>105</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="AI8" t="n">
         <v>112</v>
       </c>
-      <c r="R8" t="n">
+      <c r="AJ8" t="n">
         <v>51.01</v>
       </c>
-      <c r="S8" t="n">
+      <c r="AK8" t="n">
         <v>15.38</v>
       </c>
-      <c r="T8" t="n">
+      <c r="AL8" t="n">
         <v>33.9</v>
       </c>
-      <c r="U8" t="n">
+      <c r="AM8" t="n">
         <v>37.06</v>
       </c>
-      <c r="V8" t="n">
+      <c r="AN8" t="n">
         <v>51.24</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AO8" t="n">
         <v>306.06</v>
-      </c>
-      <c r="X8" t="n">
-        <v>681.0599999999999</v>
       </c>
     </row>
     <row r="9">
@@ -1122,77 +1662,142 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="M9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="n">
+      <c r="N9" t="n">
         <v>162</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g187147-Activities-c42-Paris_Ile_de_France.html</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187147-Activities-c20-Paris_Ile_de_France.html</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187147-Activities-c47-Paris_Ile_de_France.html</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187147-Activities-c55-Paris_Ile_de_France.html</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187147-Activities-c49-Paris_Ile_de_France.html</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187147-Activities-c40-Paris_Ile_de_France.html</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187147-Activities-c56-Paris_Ile_de_France.html</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187147-Activities-c57-Paris_Ile_de_France.html</t>
+        </is>
+      </c>
+      <c r="W9" t="n">
         <v>329</v>
       </c>
-      <c r="F9" t="n">
+      <c r="X9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="n">
+      <c r="Y9" t="n">
         <v>100</v>
       </c>
-      <c r="H9" t="n">
+      <c r="Z9" t="n">
         <v>231</v>
       </c>
-      <c r="I9" t="n">
+      <c r="AA9" t="n">
         <v>304</v>
       </c>
-      <c r="J9" t="n">
+      <c r="AB9" t="n">
         <v>227</v>
       </c>
-      <c r="K9" t="n">
+      <c r="AC9" t="n">
         <v>156</v>
       </c>
-      <c r="L9" t="n">
+      <c r="AD9" t="n">
         <v>2161000</v>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>grande</t>
         </is>
       </c>
-      <c r="N9" t="n">
+      <c r="AF9" t="n">
         <v>166</v>
       </c>
-      <c r="O9" t="n">
+      <c r="AG9" t="n">
         <v>509</v>
       </c>
-      <c r="P9" t="n">
+      <c r="AH9" t="n">
         <v>2275</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="AI9" t="n">
         <v>1751</v>
       </c>
-      <c r="R9" t="n">
+      <c r="AJ9" t="n">
         <v>74.84999999999999</v>
       </c>
-      <c r="S9" t="n">
+      <c r="AK9" t="n">
         <v>26.25</v>
       </c>
-      <c r="T9" t="n">
+      <c r="AL9" t="n">
         <v>51.51</v>
       </c>
-      <c r="U9" t="n">
+      <c r="AM9" t="n">
         <v>68.31</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AN9" t="n">
         <v>75.37</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AO9" t="n">
         <v>449.1</v>
-      </c>
-      <c r="X9" t="n">
-        <v>611.1</v>
       </c>
     </row>
     <row r="10">
@@ -1202,77 +1807,142 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>17</v>
+      </c>
+      <c r="F10" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="M10" t="n">
         <v>12.2</v>
       </c>
-      <c r="C10" t="n">
+      <c r="N10" t="n">
         <v>412</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g189400-Activities-c42-Athens_Attica.html</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189400-Activities-c20-Athens_Attica.html</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189400-Activities-c47-Athens_Attica.html</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189400-Activities-c55-Athens_Attica.html</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189400-Activities-c49-Athens_Attica.html</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189400-Activities-c40-Athens_Attica.html</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189400-Activities-c56-Athens_Attica.html</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189400-Activities-c57-Athens_Attica.html</t>
+        </is>
+      </c>
+      <c r="W10" t="n">
         <v>169</v>
       </c>
-      <c r="F10" t="n">
+      <c r="X10" t="n">
         <v>259</v>
       </c>
-      <c r="G10" t="n">
+      <c r="Y10" t="n">
         <v>107</v>
       </c>
-      <c r="H10" t="n">
+      <c r="Z10" t="n">
         <v>89</v>
       </c>
-      <c r="I10" t="n">
+      <c r="AA10" t="n">
         <v>62</v>
       </c>
-      <c r="J10" t="n">
+      <c r="AB10" t="n">
         <v>77</v>
       </c>
-      <c r="K10" t="n">
+      <c r="AC10" t="n">
         <v>20</v>
       </c>
-      <c r="L10" t="n">
+      <c r="AD10" t="n">
         <v>3167000</v>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>grande</t>
         </is>
       </c>
-      <c r="N10" t="n">
+      <c r="AF10" t="n">
         <v>3</v>
       </c>
-      <c r="O10" t="n">
+      <c r="AG10" t="n">
         <v>97</v>
       </c>
-      <c r="P10" t="n">
+      <c r="AH10" t="n">
         <v>120</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="AI10" t="n">
         <v>2771</v>
       </c>
-      <c r="R10" t="n">
+      <c r="AJ10" t="n">
         <v>56.66</v>
       </c>
-      <c r="S10" t="n">
+      <c r="AK10" t="n">
         <v>10.8</v>
       </c>
-      <c r="T10" t="n">
+      <c r="AL10" t="n">
         <v>34.64</v>
       </c>
-      <c r="U10" t="n">
+      <c r="AM10" t="n">
         <v>43.69</v>
       </c>
-      <c r="V10" t="n">
+      <c r="AN10" t="n">
         <v>54.76</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AO10" t="n">
         <v>339.96</v>
-      </c>
-      <c r="X10" t="n">
-        <v>751.96</v>
       </c>
     </row>
     <row r="11">
@@ -1282,77 +1952,142 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="M11" t="n">
         <v>7</v>
       </c>
-      <c r="C11" t="n">
+      <c r="N11" t="n">
         <v>58</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g186605-Activities-c42-Dublin_County_Dublin.html</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g186605-Activities-c20-Dublin_County_Dublin.html</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g186605-Activities-c47-Dublin_County_Dublin.html</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g186605-Activities-c55-Dublin_County_Dublin.html</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g186605-Activities-c49-Dublin_County_Dublin.html</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g186605-Activities-c40-Dublin_County_Dublin.html</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g186605-Activities-c56-Dublin_County_Dublin.html</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g186605-Activities-c57-Dublin_County_Dublin.html</t>
+        </is>
+      </c>
+      <c r="W11" t="n">
         <v>212</v>
       </c>
-      <c r="F11" t="n">
+      <c r="X11" t="n">
         <v>270</v>
       </c>
-      <c r="G11" t="n">
+      <c r="Y11" t="n">
         <v>5</v>
       </c>
-      <c r="H11" t="n">
+      <c r="Z11" t="n">
         <v>81</v>
       </c>
-      <c r="I11" t="n">
+      <c r="AA11" t="n">
         <v>59</v>
       </c>
-      <c r="J11" t="n">
+      <c r="AB11" t="n">
         <v>72</v>
       </c>
-      <c r="K11" t="n">
+      <c r="AC11" t="n">
         <v>58</v>
       </c>
-      <c r="L11" t="n">
+      <c r="AD11" t="n">
         <v>544107</v>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>pequeña</t>
         </is>
       </c>
-      <c r="N11" t="n">
+      <c r="AF11" t="n">
         <v>38</v>
       </c>
-      <c r="O11" t="n">
+      <c r="AG11" t="n">
         <v>124</v>
       </c>
-      <c r="P11" t="n">
+      <c r="AH11" t="n">
         <v>257</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="AI11" t="n">
         <v>206</v>
       </c>
-      <c r="R11" t="n">
+      <c r="AJ11" t="n">
         <v>75.34999999999999</v>
       </c>
-      <c r="S11" t="n">
+      <c r="AK11" t="n">
         <v>41.8</v>
       </c>
-      <c r="T11" t="n">
+      <c r="AL11" t="n">
         <v>59.24</v>
       </c>
-      <c r="U11" t="n">
+      <c r="AM11" t="n">
         <v>59.1</v>
       </c>
-      <c r="V11" t="n">
+      <c r="AN11" t="n">
         <v>82.65000000000001</v>
       </c>
-      <c r="W11" t="n">
+      <c r="AO11" t="n">
         <v>452.1</v>
-      </c>
-      <c r="X11" t="n">
-        <v>510.1</v>
       </c>
     </row>
     <row r="12">
@@ -1362,77 +2097,142 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>19</v>
+      </c>
+      <c r="L12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="M12" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="C12" t="n">
+      <c r="N12" t="n">
         <v>189</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c42-Rome_Lazio.html</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c20-Rome_Lazio.html</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c47-Rome_Lazio.html</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c55-Rome_Lazio.html</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c49-Rome_Lazio.html</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c40-Rome_Lazio.html</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c56-Rome_Lazio.html</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187791-Activities-c57-Rome_Lazio.html</t>
+        </is>
+      </c>
+      <c r="W12" t="n">
         <v>327</v>
       </c>
-      <c r="F12" t="n">
+      <c r="X12" t="n">
         <v>926</v>
       </c>
-      <c r="G12" t="n">
+      <c r="Y12" t="n">
         <v>42</v>
       </c>
-      <c r="H12" t="n">
+      <c r="Z12" t="n">
         <v>181</v>
       </c>
-      <c r="I12" t="n">
+      <c r="AA12" t="n">
         <v>184</v>
       </c>
-      <c r="J12" t="n">
+      <c r="AB12" t="n">
         <v>134</v>
       </c>
-      <c r="K12" t="n">
+      <c r="AC12" t="n">
         <v>73</v>
       </c>
-      <c r="L12" t="n">
+      <c r="AD12" t="n">
         <v>2873000</v>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>grande</t>
         </is>
       </c>
-      <c r="N12" t="n">
+      <c r="AF12" t="n">
         <v>381</v>
       </c>
-      <c r="O12" t="n">
+      <c r="AG12" t="n">
         <v>300</v>
       </c>
-      <c r="P12" t="n">
+      <c r="AH12" t="n">
         <v>551</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="AI12" t="n">
         <v>7836</v>
       </c>
-      <c r="R12" t="n">
+      <c r="AJ12" t="n">
         <v>69.25</v>
       </c>
-      <c r="S12" t="n">
+      <c r="AK12" t="n">
         <v>21.68</v>
       </c>
-      <c r="T12" t="n">
+      <c r="AL12" t="n">
         <v>46.4</v>
       </c>
-      <c r="U12" t="n">
+      <c r="AM12" t="n">
         <v>58.34</v>
       </c>
-      <c r="V12" t="n">
+      <c r="AN12" t="n">
         <v>75.72</v>
       </c>
-      <c r="W12" t="n">
+      <c r="AO12" t="n">
         <v>415.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>604.5</v>
       </c>
     </row>
     <row r="13">
@@ -1442,77 +2242,142 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M13" t="n">
         <v>-3.9</v>
       </c>
-      <c r="C13" t="n">
+      <c r="N13" t="n">
         <v>226</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g274951-Activities-c42-Vilnius_Vilnius_County.html</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274951-Activities-c20-Vilnius_Vilnius_County.html</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274951-Activities-c47-Vilnius_Vilnius_County.html</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274951-Activities-c55-Vilnius_Vilnius_County.html</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274951-Activities-c49-Vilnius_Vilnius_County.html</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274951-Activities-c40-Vilnius_Vilnius_County.html</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274951-Activities-c56-Vilnius_Vilnius_County.html</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274951-Activities-c57-Vilnius_Vilnius_County.html</t>
+        </is>
+      </c>
+      <c r="W13" t="n">
         <v>56</v>
       </c>
-      <c r="F13" t="n">
+      <c r="X13" t="n">
         <v>105</v>
       </c>
-      <c r="G13" t="n">
+      <c r="Y13" t="n">
         <v>8</v>
       </c>
-      <c r="H13" t="n">
+      <c r="Z13" t="n">
         <v>58</v>
       </c>
-      <c r="I13" t="n">
+      <c r="AA13" t="n">
         <v>38</v>
       </c>
-      <c r="J13" t="n">
+      <c r="AB13" t="n">
         <v>47</v>
       </c>
-      <c r="K13" t="n">
+      <c r="AC13" t="n">
         <v>12</v>
       </c>
-      <c r="L13" t="n">
+      <c r="AD13" t="n">
         <v>544386</v>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>pequeña</t>
         </is>
       </c>
-      <c r="N13" t="n">
+      <c r="AF13" t="n">
         <v>23</v>
       </c>
-      <c r="O13" t="n">
+      <c r="AG13" t="n">
         <v>60</v>
       </c>
-      <c r="P13" t="n">
+      <c r="AH13" t="n">
         <v>78</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="AI13" t="n">
         <v>85</v>
       </c>
-      <c r="R13" t="n">
+      <c r="AJ13" t="n">
         <v>45.91</v>
       </c>
-      <c r="S13" t="n">
+      <c r="AK13" t="n">
         <v>12.9</v>
       </c>
-      <c r="T13" t="n">
+      <c r="AL13" t="n">
         <v>30.06</v>
       </c>
-      <c r="U13" t="n">
+      <c r="AM13" t="n">
         <v>35.36</v>
       </c>
-      <c r="V13" t="n">
+      <c r="AN13" t="n">
         <v>43.95</v>
       </c>
-      <c r="W13" t="n">
+      <c r="AO13" t="n">
         <v>275.46</v>
-      </c>
-      <c r="X13" t="n">
-        <v>501.46</v>
       </c>
     </row>
     <row r="14">
@@ -1522,77 +2387,142 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M14" t="n">
         <v>2.9</v>
       </c>
-      <c r="C14" t="n">
+      <c r="N14" t="n">
         <v>435</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g295110-Activities-c42-Skopje_Skopje_Region.html</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g295110-Activities-c20-Skopje_Skopje_Region.html</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g295110-Activities-c47-Skopje_Skopje_Region.html</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g295110-Activities-c55-Skopje_Skopje_Region.html</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g295110-Activities-c49-Skopje_Skopje_Region.html</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g295110-Activities-c40-Skopje_Skopje_Region.html</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g295110-Activities-c56-Skopje_Skopje_Region.html</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g295110-Activities-c57-Skopje_Skopje_Region.html</t>
+        </is>
+      </c>
+      <c r="W14" t="n">
         <v>21</v>
       </c>
-      <c r="F14" t="n">
+      <c r="X14" t="n">
         <v>34</v>
       </c>
-      <c r="G14" t="n">
+      <c r="Y14" t="n">
         <v>10</v>
       </c>
-      <c r="H14" t="n">
+      <c r="Z14" t="n">
         <v>12</v>
       </c>
-      <c r="I14" t="n">
+      <c r="AA14" t="n">
         <v>13</v>
       </c>
-      <c r="J14" t="n">
+      <c r="AB14" t="n">
         <v>13</v>
       </c>
-      <c r="K14" t="n">
+      <c r="AC14" t="n">
         <v>8</v>
       </c>
-      <c r="L14" t="n">
+      <c r="AD14" t="n">
         <v>546824</v>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>pequeña</t>
         </is>
       </c>
-      <c r="N14" t="n">
+      <c r="AF14" t="n">
         <v>28</v>
       </c>
-      <c r="O14" t="n">
+      <c r="AG14" t="n">
         <v>38</v>
       </c>
-      <c r="P14" t="n">
+      <c r="AH14" t="n">
         <v>7</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="AI14" t="n">
         <v>53</v>
       </c>
-      <c r="R14" t="n">
+      <c r="AJ14" t="n">
         <v>31.58</v>
       </c>
-      <c r="S14" t="n">
+      <c r="AK14" t="n">
         <v>6.47</v>
       </c>
-      <c r="T14" t="n">
+      <c r="AL14" t="n">
         <v>19.52</v>
       </c>
-      <c r="U14" t="n">
+      <c r="AM14" t="n">
         <v>24.85</v>
       </c>
-      <c r="V14" t="n">
+      <c r="AN14" t="n">
         <v>23.67</v>
       </c>
-      <c r="W14" t="n">
+      <c r="AO14" t="n">
         <v>189.48</v>
-      </c>
-      <c r="X14" t="n">
-        <v>624.48</v>
       </c>
     </row>
     <row r="15">
@@ -1602,77 +2532,142 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M15" t="n">
         <v>0.4</v>
       </c>
-      <c r="C15" t="n">
+      <c r="N15" t="n">
         <v>551</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g294456-Activities-c42-Chisinau_Chisinau_District.html</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294456-Activities-c20-Chisinau_Chisinau_District.html</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294456-Activities-c47-Chisinau_Chisinau_District.html</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294456-Activities-c55-Chisinau_Chisinau_District.html</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294456-Activities-c49-Chisinau_Chisinau_District.html</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294456-Activities-c40-Chisinau_Chisinau_District.html</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294456-Activities-c56-Chisinau_Chisinau_District.html</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294456-Activities-c57-Chisinau_Chisinau_District.html</t>
+        </is>
+      </c>
+      <c r="W15" t="n">
         <v>21</v>
       </c>
-      <c r="F15" t="n">
+      <c r="X15" t="n">
         <v>35</v>
       </c>
-      <c r="G15" t="n">
+      <c r="Y15" t="n">
         <v>4</v>
       </c>
-      <c r="H15" t="n">
+      <c r="Z15" t="n">
         <v>12</v>
       </c>
-      <c r="I15" t="n">
+      <c r="AA15" t="n">
         <v>18</v>
       </c>
-      <c r="J15" t="n">
+      <c r="AB15" t="n">
         <v>19</v>
       </c>
-      <c r="K15" t="n">
+      <c r="AC15" t="n">
         <v>11</v>
       </c>
-      <c r="L15" t="n">
+      <c r="AD15" t="n">
         <v>669694</v>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>grande</t>
         </is>
       </c>
-      <c r="N15" t="n">
+      <c r="AF15" t="n">
         <v>1</v>
       </c>
-      <c r="O15" t="n">
+      <c r="AG15" t="n">
         <v>19</v>
       </c>
-      <c r="P15" t="n">
+      <c r="AH15" t="n">
         <v>14</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="AI15" t="n">
         <v>51</v>
       </c>
-      <c r="R15" t="n">
+      <c r="AJ15" t="n">
         <v>32.26</v>
       </c>
-      <c r="S15" t="n">
+      <c r="AK15" t="n">
         <v>7.97</v>
       </c>
-      <c r="T15" t="n">
+      <c r="AL15" t="n">
         <v>20.6</v>
       </c>
-      <c r="U15" t="n">
+      <c r="AM15" t="n">
         <v>24.97</v>
       </c>
-      <c r="V15" t="n">
+      <c r="AN15" t="n">
         <v>27.71</v>
       </c>
-      <c r="W15" t="n">
+      <c r="AO15" t="n">
         <v>193.56</v>
-      </c>
-      <c r="X15" t="n">
-        <v>744.5599999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1685,74 +2680,139 @@
         <v>5.7</v>
       </c>
       <c r="C16" t="n">
+        <v>7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="N16" t="n">
         <v>134</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g188590-Activities-c42-Amsterdam_North_Holland_Province.html</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g188590-Activities-c20-Amsterdam_North_Holland_Province.html</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g188590-Activities-c47-Amsterdam_North_Holland_Province.html</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g188590-Activities-c55-Amsterdam_North_Holland_Province.html</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g188590-Activities-c49-Amsterdam_North_Holland_Province.html</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g188590-Activities-c40-Amsterdam_North_Holland_Province.html</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g188590-Activities-c56-Amsterdam_North_Holland_Province.html</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g188590-Activities-c57-Amsterdam_North_Holland_Province.html</t>
+        </is>
+      </c>
+      <c r="W16" t="n">
         <v>381</v>
       </c>
-      <c r="F16" t="n">
+      <c r="X16" t="n">
         <v>256</v>
       </c>
-      <c r="G16" t="n">
+      <c r="Y16" t="n">
         <v>143</v>
       </c>
-      <c r="H16" t="n">
+      <c r="Z16" t="n">
         <v>149</v>
       </c>
-      <c r="I16" t="n">
+      <c r="AA16" t="n">
         <v>88</v>
       </c>
-      <c r="J16" t="n">
+      <c r="AB16" t="n">
         <v>121</v>
       </c>
-      <c r="K16" t="n">
+      <c r="AC16" t="n">
         <v>54</v>
       </c>
-      <c r="L16" t="n">
+      <c r="AD16" t="n">
         <v>821752</v>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>grande</t>
         </is>
       </c>
-      <c r="N16" t="n">
+      <c r="AF16" t="n">
         <v>201</v>
       </c>
-      <c r="O16" t="n">
+      <c r="AG16" t="n">
         <v>205</v>
       </c>
-      <c r="P16" t="n">
+      <c r="AH16" t="n">
         <v>480</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="AI16" t="n">
         <v>506</v>
       </c>
-      <c r="R16" t="n">
+      <c r="AJ16" t="n">
         <v>74.83</v>
       </c>
-      <c r="S16" t="n">
+      <c r="AK16" t="n">
         <v>34.74</v>
       </c>
-      <c r="T16" t="n">
+      <c r="AL16" t="n">
         <v>55.58</v>
       </c>
-      <c r="U16" t="n">
+      <c r="AM16" t="n">
         <v>58.8</v>
       </c>
-      <c r="V16" t="n">
+      <c r="AN16" t="n">
         <v>83.48999999999999</v>
       </c>
-      <c r="W16" t="n">
+      <c r="AO16" t="n">
         <v>448.98</v>
-      </c>
-      <c r="X16" t="n">
-        <v>582.98</v>
       </c>
     </row>
     <row r="17">
@@ -1762,77 +2822,142 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>12</v>
+      </c>
+      <c r="C17" t="n">
         <v>13.8</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="I17" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="N17" t="n">
         <v>53</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g189158-Activities-c42-Lisbon_Lisbon_District_Central_Portugal.html</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189158-Activities-c20-Lisbon_Lisbon_District_Central_Portugal.html</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189158-Activities-c47-Lisbon_Lisbon_District_Central_Portugal.html</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189158-Activities-c55-Lisbon_Lisbon_District_Central_Portugal.html</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189158-Activities-c49-Lisbon_Lisbon_District_Central_Portugal.html</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189158-Activities-c40-Lisbon_Lisbon_District_Central_Portugal.html</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189158-Activities-c56-Lisbon_Lisbon_District_Central_Portugal.html</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189158-Activities-c57-Lisbon_Lisbon_District_Central_Portugal.html</t>
+        </is>
+      </c>
+      <c r="W17" t="n">
         <v>157</v>
       </c>
-      <c r="F17" t="n">
+      <c r="X17" t="n">
         <v>430</v>
       </c>
-      <c r="G17" t="n">
+      <c r="Y17" t="n">
         <v>137</v>
       </c>
-      <c r="H17" t="n">
+      <c r="Z17" t="n">
         <v>109</v>
       </c>
-      <c r="I17" t="n">
+      <c r="AA17" t="n">
         <v>125</v>
       </c>
-      <c r="J17" t="n">
+      <c r="AB17" t="n">
         <v>59</v>
       </c>
-      <c r="K17" t="n">
+      <c r="AC17" t="n">
         <v>55</v>
       </c>
-      <c r="L17" t="n">
+      <c r="AD17" t="n">
         <v>504718</v>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>pequeña</t>
         </is>
       </c>
-      <c r="N17" t="n">
+      <c r="AF17" t="n">
         <v>245</v>
       </c>
-      <c r="O17" t="n">
+      <c r="AG17" t="n">
         <v>117</v>
       </c>
-      <c r="P17" t="n">
+      <c r="AH17" t="n">
         <v>341</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="AI17" t="n">
         <v>376</v>
       </c>
-      <c r="R17" t="n">
+      <c r="AJ17" t="n">
         <v>50.39</v>
       </c>
-      <c r="S17" t="n">
+      <c r="AK17" t="n">
         <v>21.07</v>
       </c>
-      <c r="T17" t="n">
+      <c r="AL17" t="n">
         <v>36.31</v>
       </c>
-      <c r="U17" t="n">
+      <c r="AM17" t="n">
         <v>40.2</v>
       </c>
-      <c r="V17" t="n">
+      <c r="AN17" t="n">
         <v>43.13</v>
       </c>
-      <c r="W17" t="n">
+      <c r="AO17" t="n">
         <v>302.34</v>
-      </c>
-      <c r="X17" t="n">
-        <v>355.34</v>
       </c>
     </row>
     <row r="18">
@@ -1842,77 +2967,142 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>20</v>
+      </c>
+      <c r="J18" t="n">
+        <v>13</v>
+      </c>
+      <c r="K18" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M18" t="n">
         <v>1.3</v>
       </c>
-      <c r="C18" t="n">
+      <c r="N18" t="n">
         <v>274</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c42-Prague_Bohemia.html</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c20-Prague_Bohemia.html</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c47-Prague_Bohemia.html</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c55-Prague_Bohemia.html</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c49-Prague_Bohemia.html</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c40-Prague_Bohemia.html</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c56-Prague_Bohemia.html</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274707-Activities-c57-Prague_Bohemia.html</t>
+        </is>
+      </c>
+      <c r="W18" t="n">
         <v>404</v>
       </c>
-      <c r="F18" t="n">
+      <c r="X18" t="n">
         <v>581</v>
       </c>
-      <c r="G18" t="n">
+      <c r="Y18" t="n">
         <v>44</v>
       </c>
-      <c r="H18" t="n">
+      <c r="Z18" t="n">
         <v>212</v>
       </c>
-      <c r="I18" t="n">
+      <c r="AA18" t="n">
         <v>136</v>
       </c>
-      <c r="J18" t="n">
+      <c r="AB18" t="n">
         <v>254</v>
       </c>
-      <c r="K18" t="n">
+      <c r="AC18" t="n">
         <v>75</v>
       </c>
-      <c r="L18" t="n">
+      <c r="AD18" t="n">
         <v>1309000</v>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>grande</t>
         </is>
       </c>
-      <c r="N18" t="n">
+      <c r="AF18" t="n">
         <v>144</v>
       </c>
-      <c r="O18" t="n">
+      <c r="AG18" t="n">
         <v>242</v>
       </c>
-      <c r="P18" t="n">
+      <c r="AH18" t="n">
         <v>430</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="AI18" t="n">
         <v>521</v>
       </c>
-      <c r="R18" t="n">
+      <c r="AJ18" t="n">
         <v>45.12</v>
       </c>
-      <c r="S18" t="n">
+      <c r="AK18" t="n">
         <v>18.27</v>
       </c>
-      <c r="T18" t="n">
+      <c r="AL18" t="n">
         <v>32.23</v>
       </c>
-      <c r="U18" t="n">
+      <c r="AM18" t="n">
         <v>38.08</v>
       </c>
-      <c r="V18" t="n">
+      <c r="AN18" t="n">
         <v>33.25</v>
       </c>
-      <c r="W18" t="n">
+      <c r="AO18" t="n">
         <v>270.72</v>
-      </c>
-      <c r="X18" t="n">
-        <v>544.72</v>
       </c>
     </row>
     <row r="19">
@@ -1922,77 +3112,142 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" t="n">
         <v>-2.4</v>
       </c>
-      <c r="C19" t="n">
+      <c r="N19" t="n">
         <v>146</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g189852-Activities-c42-Stockholm.html</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189852-Activities-c20-Stockholm.html</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189852-Activities-c47-Stockholm.html</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189852-Activities-c55-Stockholm.html</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189852-Activities-c49-Stockholm.html</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189852-Activities-c40-Stockholm.html</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189852-Activities-c56-Stockholm.html</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189852-Activities-c57-Stockholm.html</t>
+        </is>
+      </c>
+      <c r="W19" t="n">
         <v>20</v>
       </c>
-      <c r="F19" t="n">
+      <c r="X19" t="n">
         <v>133</v>
       </c>
-      <c r="G19" t="n">
+      <c r="Y19" t="n">
         <v>22</v>
       </c>
-      <c r="H19" t="n">
+      <c r="Z19" t="n">
         <v>62</v>
       </c>
-      <c r="I19" t="n">
+      <c r="AA19" t="n">
         <v>24</v>
       </c>
-      <c r="J19" t="n">
+      <c r="AB19" t="n">
         <v>52</v>
       </c>
-      <c r="K19" t="n">
+      <c r="AC19" t="n">
         <v>57</v>
       </c>
-      <c r="L19" t="n">
+      <c r="AD19" t="n">
         <v>975551</v>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="AE19" t="inlineStr">
         <is>
           <t>grande</t>
         </is>
       </c>
-      <c r="N19" t="n">
+      <c r="AF19" t="n">
         <v>66</v>
       </c>
-      <c r="O19" t="n">
+      <c r="AG19" t="n">
         <v>2</v>
       </c>
-      <c r="P19" t="n">
+      <c r="AH19" t="n">
         <v>311</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="AI19" t="n">
         <v>284</v>
       </c>
-      <c r="R19" t="n">
+      <c r="AJ19" t="n">
         <v>71.55</v>
       </c>
-      <c r="S19" t="n">
+      <c r="AK19" t="n">
         <v>26.05</v>
       </c>
-      <c r="T19" t="n">
+      <c r="AL19" t="n">
         <v>49.7</v>
       </c>
-      <c r="U19" t="n">
+      <c r="AM19" t="n">
         <v>63.45</v>
       </c>
-      <c r="V19" t="n">
+      <c r="AN19" t="n">
         <v>75.04000000000001</v>
       </c>
-      <c r="W19" t="n">
+      <c r="AO19" t="n">
         <v>429.3</v>
-      </c>
-      <c r="X19" t="n">
-        <v>575.3</v>
       </c>
     </row>
     <row r="20">
@@ -2002,77 +3257,142 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="J20" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="K20" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="M20" t="n">
         <v>1.9</v>
       </c>
-      <c r="C20" t="n">
+      <c r="N20" t="n">
         <v>181</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c42-Berlin.html</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c20-Berlin.html</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c47-Berlin.html</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c55-Berlin.html</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c49-Berlin.html</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c40-Berlin.html</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c56-Berlin.html</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g187323-Activities-c57-Berlin.html</t>
+        </is>
+      </c>
+      <c r="W20" t="n">
         <v>372</v>
       </c>
-      <c r="F20" t="n">
+      <c r="X20" t="n">
         <v>380</v>
       </c>
-      <c r="G20" t="n">
+      <c r="Y20" t="n">
         <v>10</v>
       </c>
-      <c r="H20" t="n">
+      <c r="Z20" t="n">
         <v>194</v>
       </c>
-      <c r="I20" t="n">
+      <c r="AA20" t="n">
         <v>111</v>
       </c>
-      <c r="J20" t="n">
+      <c r="AB20" t="n">
         <v>129</v>
       </c>
-      <c r="K20" t="n">
+      <c r="AC20" t="n">
         <v>96</v>
       </c>
-      <c r="L20" t="n">
+      <c r="AD20" t="n">
         <v>3645000</v>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="AE20" t="inlineStr">
         <is>
           <t>grande</t>
         </is>
       </c>
-      <c r="N20" t="n">
+      <c r="AF20" t="n">
         <v>253</v>
       </c>
-      <c r="O20" t="n">
+      <c r="AG20" t="n">
         <v>2</v>
       </c>
-      <c r="P20" t="n">
+      <c r="AH20" t="n">
         <v>871</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="AI20" t="n">
         <v>1010</v>
       </c>
-      <c r="R20" t="n">
+      <c r="AJ20" t="n">
         <v>67.62</v>
       </c>
-      <c r="S20" t="n">
+      <c r="AK20" t="n">
         <v>26.85</v>
       </c>
-      <c r="T20" t="n">
+      <c r="AL20" t="n">
         <v>48.04</v>
       </c>
-      <c r="U20" t="n">
+      <c r="AM20" t="n">
         <v>54.27</v>
       </c>
-      <c r="V20" t="n">
+      <c r="AN20" t="n">
         <v>63.56</v>
       </c>
-      <c r="W20" t="n">
+      <c r="AO20" t="n">
         <v>405.72</v>
-      </c>
-      <c r="X20" t="n">
-        <v>586.72</v>
       </c>
     </row>
     <row r="21">
@@ -2082,77 +3402,142 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E21" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F21" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="M21" t="n">
         <v>5.8</v>
       </c>
-      <c r="C21" t="n">
+      <c r="N21" t="n">
         <v>92</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g188644-Activities-c42-Brussels.html</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g188644-Activities-c20-Brussels.html</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g188644-Activities-c47-Brussels.html</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g188644-Activities-c55-Brussels.html</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g188644-Activities-c49-Brussels.html</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g188644-Activities-c40-Brussels.html</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g188644-Activities-c56-Brussels.html</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g188644-Activities-c57-Brussels.html</t>
+        </is>
+      </c>
+      <c r="W21" t="n">
         <v>107</v>
       </c>
-      <c r="F21" t="n">
+      <c r="X21" t="n">
         <v>238</v>
       </c>
-      <c r="G21" t="n">
+      <c r="Y21" t="n">
         <v>9</v>
       </c>
-      <c r="H21" t="n">
+      <c r="Z21" t="n">
         <v>98</v>
       </c>
-      <c r="I21" t="n">
+      <c r="AA21" t="n">
         <v>34</v>
       </c>
-      <c r="J21" t="n">
+      <c r="AB21" t="n">
         <v>51</v>
       </c>
-      <c r="K21" t="n">
+      <c r="AC21" t="n">
         <v>29</v>
       </c>
-      <c r="L21" t="n">
+      <c r="AD21" t="n">
         <v>181726</v>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="AE21" t="inlineStr">
         <is>
           <t>pequeña</t>
         </is>
       </c>
-      <c r="N21" t="n">
+      <c r="AF21" t="n">
         <v>98</v>
       </c>
-      <c r="O21" t="n">
+      <c r="AG21" t="n">
         <v>13</v>
       </c>
-      <c r="P21" t="n">
+      <c r="AH21" t="n">
         <v>356</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="AI21" t="n">
         <v>590</v>
       </c>
-      <c r="R21" t="n">
+      <c r="AJ21" t="n">
         <v>72.97</v>
       </c>
-      <c r="S21" t="n">
+      <c r="AK21" t="n">
         <v>25.81</v>
       </c>
-      <c r="T21" t="n">
+      <c r="AL21" t="n">
         <v>50.32</v>
       </c>
-      <c r="U21" t="n">
+      <c r="AM21" t="n">
         <v>60.86</v>
       </c>
-      <c r="V21" t="n">
+      <c r="AN21" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="W21" t="n">
+      <c r="AO21" t="n">
         <v>437.82</v>
-      </c>
-      <c r="X21" t="n">
-        <v>529.8199999999999</v>
       </c>
     </row>
     <row r="22">
@@ -2162,77 +3547,142 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>16</v>
+      </c>
+      <c r="G22" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K22" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M22" t="n">
         <v>2.3</v>
       </c>
-      <c r="C22" t="n">
+      <c r="N22" t="n">
         <v>326</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g294450-Activities-c42-Sarajevo_Sarajevo_Canton_Federation_of_Bosnia_and_Herzegovina.html</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294450-Activities-c20-Sarajevo_Sarajevo_Canton_Federation_of_Bosnia_and_Herzegovina.html</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294450-Activities-c47-Sarajevo_Sarajevo_Canton_Federation_of_Bosnia_and_Herzegovina.html</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294450-Activities-c55-Sarajevo_Sarajevo_Canton_Federation_of_Bosnia_and_Herzegovina.html</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294450-Activities-c49-Sarajevo_Sarajevo_Canton_Federation_of_Bosnia_and_Herzegovina.html</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294450-Activities-c40-Sarajevo_Sarajevo_Canton_Federation_of_Bosnia_and_Herzegovina.html</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294450-Activities-c56-Sarajevo_Sarajevo_Canton_Federation_of_Bosnia_and_Herzegovina.html</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294450-Activities-c57-Sarajevo_Sarajevo_Canton_Federation_of_Bosnia_and_Herzegovina.html</t>
+        </is>
+      </c>
+      <c r="W22" t="n">
         <v>27</v>
       </c>
-      <c r="F22" t="n">
+      <c r="X22" t="n">
         <v>70</v>
       </c>
-      <c r="G22" t="n">
+      <c r="Y22" t="n">
         <v>9</v>
       </c>
-      <c r="H22" t="n">
+      <c r="Z22" t="n">
         <v>24</v>
       </c>
-      <c r="I22" t="n">
+      <c r="AA22" t="n">
         <v>13</v>
       </c>
-      <c r="J22" t="n">
+      <c r="AB22" t="n">
         <v>16</v>
       </c>
-      <c r="K22" t="n">
+      <c r="AC22" t="n">
         <v>9</v>
       </c>
-      <c r="L22" t="n">
+      <c r="AD22" t="n">
         <v>275524</v>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="AE22" t="inlineStr">
         <is>
           <t>pequeña</t>
         </is>
       </c>
-      <c r="N22" t="n">
+      <c r="AF22" t="n">
         <v>19</v>
       </c>
-      <c r="O22" t="n">
+      <c r="AG22" t="n">
         <v>24</v>
       </c>
-      <c r="P22" t="n">
+      <c r="AH22" t="n">
         <v>16</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="AI22" t="n">
         <v>72</v>
       </c>
-      <c r="R22" t="n">
+      <c r="AJ22" t="n">
         <v>35.72</v>
       </c>
-      <c r="S22" t="n">
+      <c r="AK22" t="n">
         <v>6.32</v>
       </c>
-      <c r="T22" t="n">
+      <c r="AL22" t="n">
         <v>21.6</v>
       </c>
-      <c r="U22" t="n">
+      <c r="AM22" t="n">
         <v>28.81</v>
       </c>
-      <c r="V22" t="n">
+      <c r="AN22" t="n">
         <v>23.78</v>
       </c>
-      <c r="W22" t="n">
+      <c r="AO22" t="n">
         <v>214.32</v>
-      </c>
-      <c r="X22" t="n">
-        <v>540.3199999999999</v>
       </c>
     </row>
     <row r="23">
@@ -2242,77 +3692,142 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="H23" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="I23" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8</v>
+      </c>
+      <c r="M23" t="n">
         <v>2.9</v>
       </c>
-      <c r="C23" t="n">
+      <c r="N23" t="n">
         <v>322</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g294454-Activities-c42-Zagreb_Central_Croatia.html</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294454-Activities-c20-Zagreb_Central_Croatia.html</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294454-Activities-c47-Zagreb_Central_Croatia.html</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294454-Activities-c55-Zagreb_Central_Croatia.html</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294454-Activities-c49-Zagreb_Central_Croatia.html</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294454-Activities-c40-Zagreb_Central_Croatia.html</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294454-Activities-c56-Zagreb_Central_Croatia.html</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294454-Activities-c57-Zagreb_Central_Croatia.html</t>
+        </is>
+      </c>
+      <c r="W23" t="n">
         <v>83</v>
       </c>
-      <c r="F23" t="n">
+      <c r="X23" t="n">
         <v>52</v>
       </c>
-      <c r="G23" t="n">
+      <c r="Y23" t="n">
         <v>18</v>
       </c>
-      <c r="H23" t="n">
+      <c r="Z23" t="n">
         <v>42</v>
       </c>
-      <c r="I23" t="n">
+      <c r="AA23" t="n">
         <v>27</v>
       </c>
-      <c r="J23" t="n">
+      <c r="AB23" t="n">
         <v>46</v>
       </c>
-      <c r="K23" t="n">
+      <c r="AC23" t="n">
         <v>16</v>
       </c>
-      <c r="L23" t="n">
+      <c r="AD23" t="n">
         <v>806341</v>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="AE23" t="inlineStr">
         <is>
           <t>grande</t>
         </is>
       </c>
-      <c r="N23" t="n">
+      <c r="AF23" t="n">
         <v>21</v>
       </c>
-      <c r="O23" t="n">
+      <c r="AG23" t="n">
         <v>51</v>
       </c>
-      <c r="P23" t="n">
+      <c r="AH23" t="n">
         <v>51</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="AI23" t="n">
         <v>110</v>
       </c>
-      <c r="R23" t="n">
+      <c r="AJ23" t="n">
         <v>49.18</v>
       </c>
-      <c r="S23" t="n">
+      <c r="AK23" t="n">
         <v>11.6</v>
       </c>
-      <c r="T23" t="n">
+      <c r="AL23" t="n">
         <v>31.13</v>
       </c>
-      <c r="U23" t="n">
+      <c r="AM23" t="n">
         <v>40.33</v>
       </c>
-      <c r="V23" t="n">
+      <c r="AN23" t="n">
         <v>40.36</v>
       </c>
-      <c r="W23" t="n">
+      <c r="AO23" t="n">
         <v>295.08</v>
-      </c>
-      <c r="X23" t="n">
-        <v>617.0799999999999</v>
       </c>
     </row>
     <row r="24">
@@ -2322,77 +3837,142 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E24" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F24" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="G24" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="H24" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L24" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="M24" t="n">
         <v>2.3</v>
       </c>
-      <c r="C24" t="n">
+      <c r="N24" t="n">
         <v>172</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g274924-Activities-c42-Bratislava_Bratislava_Region.html</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274924-Activities-c20-Bratislava_Bratislava_Region.html</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274924-Activities-c47-Bratislava_Bratislava_Region.html</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274924-Activities-c55-Bratislava_Bratislava_Region.html</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274924-Activities-c49-Bratislava_Bratislava_Region.html</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274924-Activities-c40-Bratislava_Bratislava_Region.html</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274924-Activities-c56-Bratislava_Bratislava_Region.html</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274924-Activities-c57-Bratislava_Bratislava_Region.html</t>
+        </is>
+      </c>
+      <c r="W24" t="n">
         <v>61</v>
       </c>
-      <c r="F24" t="n">
+      <c r="X24" t="n">
         <v>105</v>
       </c>
-      <c r="G24" t="n">
+      <c r="Y24" t="n">
         <v>6</v>
       </c>
-      <c r="H24" t="n">
+      <c r="Z24" t="n">
         <v>39</v>
       </c>
-      <c r="I24" t="n">
+      <c r="AA24" t="n">
         <v>17</v>
       </c>
-      <c r="J24" t="n">
+      <c r="AB24" t="n">
         <v>67</v>
       </c>
-      <c r="K24" t="n">
+      <c r="AC24" t="n">
         <v>33</v>
       </c>
-      <c r="L24" t="n">
+      <c r="AD24" t="n">
         <v>424428</v>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="AE24" t="inlineStr">
         <is>
           <t>pequeña</t>
         </is>
       </c>
-      <c r="N24" t="n">
+      <c r="AF24" t="n">
         <v>26</v>
       </c>
-      <c r="O24" t="n">
+      <c r="AG24" t="n">
         <v>47</v>
       </c>
-      <c r="P24" t="n">
+      <c r="AH24" t="n">
         <v>67</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="AI24" t="n">
         <v>121</v>
       </c>
-      <c r="R24" t="n">
+      <c r="AJ24" t="n">
         <v>44.98</v>
       </c>
-      <c r="S24" t="n">
+      <c r="AK24" t="n">
         <v>16.13</v>
       </c>
-      <c r="T24" t="n">
+      <c r="AL24" t="n">
         <v>31.13</v>
       </c>
-      <c r="U24" t="n">
+      <c r="AM24" t="n">
         <v>38.5</v>
       </c>
-      <c r="V24" t="n">
+      <c r="AN24" t="n">
         <v>33.64</v>
       </c>
-      <c r="W24" t="n">
+      <c r="AO24" t="n">
         <v>269.88</v>
-      </c>
-      <c r="X24" t="n">
-        <v>441.88</v>
       </c>
     </row>
     <row r="25">
@@ -2402,77 +3982,142 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="G25" t="n">
+        <v>17</v>
+      </c>
+      <c r="H25" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>19</v>
+      </c>
+      <c r="J25" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M25" t="n">
         <v>-6.7</v>
       </c>
-      <c r="C25" t="n">
+      <c r="N25" t="n">
         <v>368</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g189934-Activities-c42-Helsinki_Uusimaa.html</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189934-Activities-c20-Helsinki_Uusimaa.html</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189934-Activities-c47-Helsinki_Uusimaa.html</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189934-Activities-c55-Helsinki_Uusimaa.html</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189934-Activities-c49-Helsinki_Uusimaa.html</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189934-Activities-c40-Helsinki_Uusimaa.html</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189934-Activities-c56-Helsinki_Uusimaa.html</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189934-Activities-c57-Helsinki_Uusimaa.html</t>
+        </is>
+      </c>
+      <c r="W25" t="n">
         <v>50</v>
       </c>
-      <c r="F25" t="n">
+      <c r="X25" t="n">
         <v>177</v>
       </c>
-      <c r="G25" t="n">
+      <c r="Y25" t="n">
         <v>27</v>
       </c>
-      <c r="H25" t="n">
+      <c r="Z25" t="n">
         <v>59</v>
       </c>
-      <c r="I25" t="n">
+      <c r="AA25" t="n">
         <v>38</v>
       </c>
-      <c r="J25" t="n">
+      <c r="AB25" t="n">
         <v>56</v>
       </c>
-      <c r="K25" t="n">
+      <c r="AC25" t="n">
         <v>54</v>
       </c>
-      <c r="L25" t="n">
+      <c r="AD25" t="n">
         <v>631695</v>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="AE25" t="inlineStr">
         <is>
           <t>pequeña</t>
         </is>
       </c>
-      <c r="N25" t="n">
+      <c r="AF25" t="n">
         <v>43</v>
       </c>
-      <c r="O25" t="n">
+      <c r="AG25" t="n">
         <v>67</v>
       </c>
-      <c r="P25" t="n">
+      <c r="AH25" t="n">
         <v>233</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="AI25" t="n">
         <v>130</v>
       </c>
-      <c r="R25" t="n">
+      <c r="AJ25" t="n">
         <v>72.81999999999999</v>
       </c>
-      <c r="S25" t="n">
+      <c r="AK25" t="n">
         <v>26.14</v>
       </c>
-      <c r="T25" t="n">
+      <c r="AL25" t="n">
         <v>50.4</v>
       </c>
-      <c r="U25" t="n">
+      <c r="AM25" t="n">
         <v>60.02</v>
       </c>
-      <c r="V25" t="n">
+      <c r="AN25" t="n">
         <v>77.91</v>
       </c>
-      <c r="W25" t="n">
+      <c r="AO25" t="n">
         <v>436.92</v>
-      </c>
-      <c r="X25" t="n">
-        <v>804.9200000000001</v>
       </c>
     </row>
     <row r="26">
@@ -2482,77 +4127,142 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="H26" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="I26" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>16</v>
+      </c>
+      <c r="K26" t="n">
+        <v>13</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="M26" t="n">
         <v>1.2</v>
       </c>
-      <c r="C26" t="n">
+      <c r="N26" t="n">
         <v>158</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g274887-Activities-c42-Budapest_Central_Hungary.html</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274887-Activities-c20-Budapest_Central_Hungary.html</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274887-Activities-c47-Budapest_Central_Hungary.html</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274887-Activities-c55-Budapest_Central_Hungary.html</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274887-Activities-c49-Budapest_Central_Hungary.html</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274887-Activities-c40-Budapest_Central_Hungary.html</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274887-Activities-c56-Budapest_Central_Hungary.html</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274887-Activities-c57-Budapest_Central_Hungary.html</t>
+        </is>
+      </c>
+      <c r="W26" t="n">
         <v>213</v>
       </c>
-      <c r="F26" t="n">
+      <c r="X26" t="n">
         <v>242</v>
       </c>
-      <c r="G26" t="n">
+      <c r="Y26" t="n">
         <v>62</v>
       </c>
-      <c r="H26" t="n">
+      <c r="Z26" t="n">
         <v>116</v>
       </c>
-      <c r="I26" t="n">
+      <c r="AA26" t="n">
         <v>118</v>
       </c>
-      <c r="J26" t="n">
+      <c r="AB26" t="n">
         <v>173</v>
       </c>
-      <c r="K26" t="n">
+      <c r="AC26" t="n">
         <v>52</v>
       </c>
-      <c r="L26" t="n">
+      <c r="AD26" t="n">
         <v>9640503</v>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="AE26" t="inlineStr">
         <is>
           <t>grande</t>
         </is>
       </c>
-      <c r="N26" t="n">
+      <c r="AF26" t="n">
         <v>99</v>
       </c>
-      <c r="O26" t="n">
+      <c r="AG26" t="n">
         <v>3</v>
       </c>
-      <c r="P26" t="n">
+      <c r="AH26" t="n">
         <v>211</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="AI26" t="n">
         <v>377</v>
       </c>
-      <c r="R26" t="n">
+      <c r="AJ26" t="n">
         <v>42.03</v>
       </c>
-      <c r="S26" t="n">
+      <c r="AK26" t="n">
         <v>13.64</v>
       </c>
-      <c r="T26" t="n">
+      <c r="AL26" t="n">
         <v>28.4</v>
       </c>
-      <c r="U26" t="n">
+      <c r="AM26" t="n">
         <v>32.36</v>
       </c>
-      <c r="V26" t="n">
+      <c r="AN26" t="n">
         <v>33.43</v>
       </c>
-      <c r="W26" t="n">
+      <c r="AO26" t="n">
         <v>252.18</v>
-      </c>
-      <c r="X26" t="n">
-        <v>410.18</v>
       </c>
     </row>
     <row r="27">
@@ -2562,77 +4272,142 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="G27" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="I27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>9</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M27" t="n">
         <v>1.6</v>
       </c>
-      <c r="C27" t="n">
+      <c r="N27" t="n">
         <v>536</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g189970-Activities-c42-Reykjavik_Capital_Region.html</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189970-Activities-c20-Reykjavik_Capital_Region.html</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189970-Activities-c47-Reykjavik_Capital_Region.html</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189970-Activities-c55-Reykjavik_Capital_Region.html</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189970-Activities-c49-Reykjavik_Capital_Region.html</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189970-Activities-c40-Reykjavik_Capital_Region.html</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189970-Activities-c56-Reykjavik_Capital_Region.html</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g189970-Activities-c57-Reykjavik_Capital_Region.html</t>
+        </is>
+      </c>
+      <c r="W27" t="n">
         <v>40</v>
       </c>
-      <c r="F27" t="n">
+      <c r="X27" t="n">
         <v>47</v>
       </c>
-      <c r="G27" t="n">
+      <c r="Y27" t="n">
         <v>60</v>
       </c>
-      <c r="H27" t="n">
+      <c r="Z27" t="n">
         <v>39</v>
       </c>
-      <c r="I27" t="n">
+      <c r="AA27" t="n">
         <v>21</v>
       </c>
-      <c r="J27" t="n">
+      <c r="AB27" t="n">
         <v>28</v>
       </c>
-      <c r="K27" t="n">
+      <c r="AC27" t="n">
         <v>20</v>
       </c>
-      <c r="L27" t="n">
+      <c r="AD27" t="n">
         <v>122853</v>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="AE27" t="inlineStr">
         <is>
           <t>pequeña</t>
         </is>
       </c>
-      <c r="N27" t="n">
+      <c r="AF27" t="n">
         <v>11</v>
       </c>
-      <c r="O27" t="n">
+      <c r="AG27" t="n">
         <v>41</v>
       </c>
-      <c r="P27" t="n">
+      <c r="AH27" t="n">
         <v>43</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="AI27" t="n">
         <v>31</v>
       </c>
-      <c r="R27" t="n">
+      <c r="AJ27" t="n">
         <v>101.86</v>
       </c>
-      <c r="S27" t="n">
+      <c r="AK27" t="n">
         <v>48.28</v>
       </c>
-      <c r="T27" t="n">
+      <c r="AL27" t="n">
         <v>76.13</v>
       </c>
-      <c r="U27" t="n">
+      <c r="AM27" t="n">
         <v>92.09999999999999</v>
       </c>
-      <c r="V27" t="n">
+      <c r="AN27" t="n">
         <v>111.85</v>
       </c>
-      <c r="W27" t="n">
+      <c r="AO27" t="n">
         <v>611.16</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1147.16</v>
       </c>
     </row>
     <row r="28">
@@ -2642,77 +4417,142 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="I28" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K28" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M28" t="n">
         <v>-2</v>
       </c>
-      <c r="C28" t="n">
+      <c r="N28" t="n">
         <v>348</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g274967-Activities-c42-Riga_Riga_Region.html</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274967-Activities-c20-Riga_Riga_Region.html</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274967-Activities-c47-Riga_Riga_Region.html</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274967-Activities-c55-Riga_Riga_Region.html</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274967-Activities-c49-Riga_Riga_Region.html</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274967-Activities-c40-Riga_Riga_Region.html</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274967-Activities-c56-Riga_Riga_Region.html</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274967-Activities-c57-Riga_Riga_Region.html</t>
+        </is>
+      </c>
+      <c r="W28" t="n">
         <v>63</v>
       </c>
-      <c r="F28" t="n">
+      <c r="X28" t="n">
         <v>102</v>
       </c>
-      <c r="G28" t="n">
+      <c r="Y28" t="n">
         <v>30</v>
       </c>
-      <c r="H28" t="n">
+      <c r="Z28" t="n">
         <v>65</v>
       </c>
-      <c r="I28" t="n">
+      <c r="AA28" t="n">
         <v>89</v>
       </c>
-      <c r="J28" t="n">
+      <c r="AB28" t="n">
         <v>80</v>
       </c>
-      <c r="K28" t="n">
+      <c r="AC28" t="n">
         <v>19</v>
       </c>
-      <c r="L28" t="n">
+      <c r="AD28" t="n">
         <v>632614</v>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="AE28" t="inlineStr">
         <is>
           <t>pequeña</t>
         </is>
       </c>
-      <c r="N28" t="n">
+      <c r="AF28" t="n">
         <v>38</v>
       </c>
-      <c r="O28" t="n">
+      <c r="AG28" t="n">
         <v>1</v>
       </c>
-      <c r="P28" t="n">
+      <c r="AH28" t="n">
         <v>90</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="AI28" t="n">
         <v>100</v>
       </c>
-      <c r="R28" t="n">
+      <c r="AJ28" t="n">
         <v>49.23</v>
       </c>
-      <c r="S28" t="n">
+      <c r="AK28" t="n">
         <v>12.02</v>
       </c>
-      <c r="T28" t="n">
+      <c r="AL28" t="n">
         <v>31.36</v>
       </c>
-      <c r="U28" t="n">
+      <c r="AM28" t="n">
         <v>36.65</v>
       </c>
-      <c r="V28" t="n">
+      <c r="AN28" t="n">
         <v>45.47</v>
       </c>
-      <c r="W28" t="n">
+      <c r="AO28" t="n">
         <v>295.38</v>
-      </c>
-      <c r="X28" t="n">
-        <v>643.38</v>
       </c>
     </row>
     <row r="29">
@@ -2722,77 +4562,142 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="I29" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="J29" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="K29" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="L29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="M29" t="n">
         <v>3.7</v>
       </c>
-      <c r="C29" t="n">
+      <c r="N29" t="n">
         <v>130</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g190340-Activities-oa0-Luxembourg.html</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190340-Activities-c20-Luxembourg.html</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190340-Activities-c47-Luxembourg.html</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190340-Activities-c55-Luxembourg.html</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190340-Activities-c49-Luxembourg.html</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190340-Activities-c40-Luxembourg.html</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190340-Activities-c56-Luxembourg.html</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190340-Activities-c57-Luxembourg.html</t>
+        </is>
+      </c>
+      <c r="W29" t="n">
         <v>16</v>
       </c>
-      <c r="F29" t="n">
+      <c r="X29" t="n">
         <v>138</v>
       </c>
-      <c r="G29" t="n">
+      <c r="Y29" t="n">
         <v>5</v>
       </c>
-      <c r="H29" t="n">
+      <c r="Z29" t="n">
         <v>42</v>
       </c>
-      <c r="I29" t="n">
+      <c r="AA29" t="n">
         <v>17</v>
       </c>
-      <c r="J29" t="n">
+      <c r="AB29" t="n">
         <v>26</v>
       </c>
-      <c r="K29" t="n">
+      <c r="AC29" t="n">
         <v>42</v>
       </c>
-      <c r="L29" t="n">
+      <c r="AD29" t="n">
         <v>639070</v>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="AE29" t="inlineStr">
         <is>
           <t>grande</t>
         </is>
       </c>
-      <c r="N29" t="n">
+      <c r="AF29" t="n">
         <v>43</v>
       </c>
-      <c r="O29" t="n">
+      <c r="AG29" t="n">
         <v>49</v>
       </c>
-      <c r="P29" t="n">
+      <c r="AH29" t="n">
         <v>263</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="AI29" t="n">
         <v>378</v>
       </c>
-      <c r="R29" t="n">
+      <c r="AJ29" t="n">
         <v>86.09</v>
       </c>
-      <c r="S29" t="n">
+      <c r="AK29" t="n">
         <v>55.64</v>
       </c>
-      <c r="T29" t="n">
+      <c r="AL29" t="n">
         <v>71.47</v>
       </c>
-      <c r="U29" t="n">
+      <c r="AM29" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="V29" t="n">
+      <c r="AN29" t="n">
         <v>96.08</v>
       </c>
-      <c r="W29" t="n">
+      <c r="AO29" t="n">
         <v>516.54</v>
-      </c>
-      <c r="X29" t="n">
-        <v>646.54</v>
       </c>
     </row>
     <row r="30">
@@ -2802,77 +4707,142 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C30" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="G30" t="n">
+        <v>27</v>
+      </c>
+      <c r="H30" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K30" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="L30" t="n">
+        <v>18</v>
+      </c>
+      <c r="M30" t="n">
         <v>13.5</v>
       </c>
-      <c r="C30" t="n">
+      <c r="N30" t="n">
         <v>199</v>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g190328-Activities-c42-Valletta_Island_of_Malta.html</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190328-Activities-c20-Valletta_Island_of_Malta.html</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190328-Activities-c47-Valletta_Island_of_Malta.html</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190328-Activities-c55-Valletta_Island_of_Malta.html</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190328-Activities-c49-Valletta_Island_of_Malta.html</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190328-Activities-c40-Valletta_Island_of_Malta.html</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190328-Activities-c56-Valletta_Island_of_Malta.html</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190328-Activities-c57-Valletta_Island_of_Malta.html</t>
+        </is>
+      </c>
+      <c r="W30" t="n">
         <v>7</v>
       </c>
-      <c r="F30" t="n">
+      <c r="X30" t="n">
         <v>110</v>
       </c>
-      <c r="G30" t="n">
+      <c r="Y30" t="n">
         <v>18</v>
       </c>
-      <c r="H30" t="n">
+      <c r="Z30" t="n">
         <v>21</v>
       </c>
-      <c r="I30" t="n">
+      <c r="AA30" t="n">
         <v>2</v>
       </c>
-      <c r="J30" t="n">
+      <c r="AB30" t="n">
         <v>4</v>
       </c>
-      <c r="K30" t="n">
+      <c r="AC30" t="n">
         <v>4</v>
       </c>
-      <c r="L30" t="n">
+      <c r="AD30" t="n">
         <v>5730</v>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="AE30" t="inlineStr">
         <is>
           <t>pequeña</t>
         </is>
       </c>
-      <c r="N30" t="n">
+      <c r="AF30" t="n">
         <v>1</v>
       </c>
-      <c r="O30" t="n">
+      <c r="AG30" t="n">
         <v>30</v>
       </c>
-      <c r="P30" t="n">
+      <c r="AH30" t="n">
         <v>95</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="AI30" t="n">
         <v>291</v>
       </c>
-      <c r="R30" t="n">
+      <c r="AJ30" t="n">
         <v>63.32</v>
       </c>
-      <c r="S30" t="n">
+      <c r="AK30" t="n">
         <v>28.68</v>
       </c>
-      <c r="T30" t="n">
+      <c r="AL30" t="n">
         <v>46.69</v>
       </c>
-      <c r="U30" t="n">
+      <c r="AM30" t="n">
         <v>51.23</v>
       </c>
-      <c r="V30" t="n">
+      <c r="AN30" t="n">
         <v>67.28</v>
       </c>
-      <c r="W30" t="n">
+      <c r="AO30" t="n">
         <v>379.92</v>
-      </c>
-      <c r="X30" t="n">
-        <v>578.9200000000001</v>
       </c>
     </row>
     <row r="31">
@@ -2882,77 +4852,142 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>16</v>
+      </c>
+      <c r="H31" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K31" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M31" t="n">
         <v>-4.8</v>
       </c>
-      <c r="C31" t="n">
+      <c r="N31" t="n">
         <v>315</v>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g190479-Activities-c42-Oslo_Eastern_Norway.html</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190479-Activities-c20-Oslo_Eastern_Norway.html</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190479-Activities-c47-Oslo_Eastern_Norway.html</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190479-Activities-c55-Oslo_Eastern_Norway.html</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190479-Activities-c49-Oslo_Eastern_Norway.html</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190479-Activities-c40-Oslo_Eastern_Norway.html</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190479-Activities-c56-Oslo_Eastern_Norway.html</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g190479-Activities-c57-Oslo_Eastern_Norway.html</t>
+        </is>
+      </c>
+      <c r="W31" t="n">
         <v>48</v>
       </c>
-      <c r="F31" t="n">
+      <c r="X31" t="n">
         <v>156</v>
       </c>
-      <c r="G31" t="n">
+      <c r="Y31" t="n">
         <v>15</v>
       </c>
-      <c r="H31" t="n">
+      <c r="Z31" t="n">
         <v>69</v>
       </c>
-      <c r="I31" t="n">
+      <c r="AA31" t="n">
         <v>18</v>
       </c>
-      <c r="J31" t="n">
+      <c r="AB31" t="n">
         <v>41</v>
       </c>
-      <c r="K31" t="n">
+      <c r="AC31" t="n">
         <v>56</v>
       </c>
-      <c r="L31" t="n">
+      <c r="AD31" t="n">
         <v>634293</v>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="AE31" t="inlineStr">
         <is>
           <t>pequeña</t>
         </is>
       </c>
-      <c r="N31" t="n">
+      <c r="AF31" t="n">
         <v>24</v>
       </c>
-      <c r="O31" t="n">
+      <c r="AG31" t="n">
         <v>88</v>
       </c>
-      <c r="P31" t="n">
+      <c r="AH31" t="n">
         <v>188</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="AI31" t="n">
         <v>144</v>
       </c>
-      <c r="R31" t="n">
+      <c r="AJ31" t="n">
         <v>100.99</v>
       </c>
-      <c r="S31" t="n">
+      <c r="AK31" t="n">
         <v>37.28</v>
       </c>
-      <c r="T31" t="n">
+      <c r="AL31" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="U31" t="n">
+      <c r="AM31" t="n">
         <v>92.67</v>
       </c>
-      <c r="V31" t="n">
+      <c r="AN31" t="n">
         <v>111.53</v>
       </c>
-      <c r="W31" t="n">
+      <c r="AO31" t="n">
         <v>605.9399999999999</v>
-      </c>
-      <c r="X31" t="n">
-        <v>920.9399999999999</v>
       </c>
     </row>
     <row r="32">
@@ -2962,77 +4997,142 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="H32" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="I32" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K32" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M32" t="n">
         <v>-0.9</v>
       </c>
-      <c r="C32" t="n">
+      <c r="N32" t="n">
         <v>108</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g274856-Activities-c42-Warsaw_Mazovia_Province_Central_Poland.html</t>
         </is>
       </c>
-      <c r="E32" t="n">
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274856-Activities-c20-Warsaw_Mazovia_Province_Central_Poland.html</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274856-Activities-c47-Warsaw_Mazovia_Province_Central_Poland.html</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274856-Activities-c55-Warsaw_Mazovia_Province_Central_Poland.html</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274856-Activities-c49-Warsaw_Mazovia_Province_Central_Poland.html</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274856-Activities-c40-Warsaw_Mazovia_Province_Central_Poland.html</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274856-Activities-c56-Warsaw_Mazovia_Province_Central_Poland.html</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g274856-Activities-c57-Warsaw_Mazovia_Province_Central_Poland.html</t>
+        </is>
+      </c>
+      <c r="W32" t="n">
         <v>93</v>
       </c>
-      <c r="F32" t="n">
+      <c r="X32" t="n">
         <v>197</v>
       </c>
-      <c r="G32" t="n">
+      <c r="Y32" t="n">
         <v>6</v>
       </c>
-      <c r="H32" t="n">
+      <c r="Z32" t="n">
         <v>72</v>
       </c>
-      <c r="I32" t="n">
+      <c r="AA32" t="n">
         <v>88</v>
       </c>
-      <c r="J32" t="n">
+      <c r="AB32" t="n">
         <v>104</v>
       </c>
-      <c r="K32" t="n">
+      <c r="AC32" t="n">
         <v>40</v>
       </c>
-      <c r="L32" t="n">
+      <c r="AD32" t="n">
         <v>1765000</v>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="AE32" t="inlineStr">
         <is>
           <t>grande</t>
         </is>
       </c>
-      <c r="N32" t="n">
+      <c r="AF32" t="n">
         <v>153</v>
       </c>
-      <c r="O32" t="n">
+      <c r="AG32" t="n">
         <v>199</v>
       </c>
-      <c r="P32" t="n">
+      <c r="AH32" t="n">
         <v>313</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="AI32" t="n">
         <v>482</v>
       </c>
-      <c r="R32" t="n">
+      <c r="AJ32" t="n">
         <v>39.13</v>
       </c>
-      <c r="S32" t="n">
+      <c r="AK32" t="n">
         <v>14.92</v>
       </c>
-      <c r="T32" t="n">
+      <c r="AL32" t="n">
         <v>27.5</v>
       </c>
-      <c r="U32" t="n">
+      <c r="AM32" t="n">
         <v>30.66</v>
       </c>
-      <c r="V32" t="n">
+      <c r="AN32" t="n">
         <v>32.72</v>
       </c>
-      <c r="W32" t="n">
+      <c r="AO32" t="n">
         <v>234.78</v>
-      </c>
-      <c r="X32" t="n">
-        <v>342.78</v>
       </c>
     </row>
     <row r="33">
@@ -3042,77 +5142,142 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F33" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="H33" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="M33" t="n">
         <v>2.5</v>
       </c>
-      <c r="C33" t="n">
+      <c r="N33" t="n">
         <v>189</v>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g294458-Activities-c42-Bucharest.html</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294458-Activities-c20-Bucharest.html</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294458-Activities-c47-Bucharest.html</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294458-Activities-c55-Bucharest.html</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294458-Activities-c49-Bucharest.html</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294458-Activities-c40-Bucharest.html</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294458-Activities-c56-Bucharest.html</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294458-Activities-c57-Bucharest.html</t>
+        </is>
+      </c>
+      <c r="W33" t="n">
         <v>103</v>
       </c>
-      <c r="F33" t="n">
+      <c r="X33" t="n">
         <v>106</v>
       </c>
-      <c r="G33" t="n">
+      <c r="Y33" t="n">
         <v>11</v>
       </c>
-      <c r="H33" t="n">
+      <c r="Z33" t="n">
         <v>51</v>
       </c>
-      <c r="I33" t="n">
+      <c r="AA33" t="n">
         <v>58</v>
       </c>
-      <c r="J33" t="n">
+      <c r="AB33" t="n">
         <v>84</v>
       </c>
-      <c r="K33" t="n">
+      <c r="AC33" t="n">
         <v>27</v>
       </c>
-      <c r="L33" t="n">
+      <c r="AD33" t="n">
         <v>1830000</v>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="AE33" t="inlineStr">
         <is>
           <t>grande</t>
         </is>
       </c>
-      <c r="N33" t="n">
+      <c r="AF33" t="n">
         <v>62</v>
       </c>
-      <c r="O33" t="n">
+      <c r="AG33" t="n">
         <v>1</v>
       </c>
-      <c r="P33" t="n">
+      <c r="AH33" t="n">
         <v>116</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="AI33" t="n">
         <v>427</v>
       </c>
-      <c r="R33" t="n">
+      <c r="AJ33" t="n">
         <v>36.45</v>
       </c>
-      <c r="S33" t="n">
+      <c r="AK33" t="n">
         <v>10</v>
       </c>
-      <c r="T33" t="n">
+      <c r="AL33" t="n">
         <v>23.75</v>
       </c>
-      <c r="U33" t="n">
+      <c r="AM33" t="n">
         <v>29.88</v>
       </c>
-      <c r="V33" t="n">
+      <c r="AN33" t="n">
         <v>32.26</v>
       </c>
-      <c r="W33" t="n">
+      <c r="AO33" t="n">
         <v>218.7</v>
-      </c>
-      <c r="X33" t="n">
-        <v>407.7</v>
       </c>
     </row>
     <row r="34">
@@ -3122,77 +5287,142 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="I34" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="J34" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="M34" t="n">
         <v>4</v>
       </c>
-      <c r="C34" t="n">
+      <c r="N34" t="n">
         <v>378</v>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>https://www.tripadvisor.es/Attractions-g294472-Activities-c42-Belgrade.html</t>
         </is>
       </c>
-      <c r="E34" t="n">
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294472-Activities-c20-Belgrade.html</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294472-Activities-c47-Belgrade.html</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294472-Activities-c55-Belgrade.html</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294472-Activities-c49-Belgrade.html</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294472-Activities-c40-Belgrade.html</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294472-Activities-c56-Belgrade.html</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>https://www.tripadvisor.es/Attractions-g294472-Activities-c57-Belgrade.html</t>
+        </is>
+      </c>
+      <c r="W34" t="n">
         <v>129</v>
       </c>
-      <c r="F34" t="n">
+      <c r="X34" t="n">
         <v>79</v>
       </c>
-      <c r="G34" t="n">
+      <c r="Y34" t="n">
         <v>5</v>
       </c>
-      <c r="H34" t="n">
+      <c r="Z34" t="n">
         <v>47</v>
       </c>
-      <c r="I34" t="n">
+      <c r="AA34" t="n">
         <v>44</v>
       </c>
-      <c r="J34" t="n">
+      <c r="AB34" t="n">
         <v>48</v>
       </c>
-      <c r="K34" t="n">
+      <c r="AC34" t="n">
         <v>18</v>
       </c>
-      <c r="L34" t="n">
+      <c r="AD34" t="n">
         <v>1374000</v>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="AE34" t="inlineStr">
         <is>
           <t>grande</t>
         </is>
       </c>
-      <c r="N34" t="n">
+      <c r="AF34" t="n">
         <v>84</v>
       </c>
-      <c r="O34" t="n">
+      <c r="AG34" t="n">
         <v>82</v>
       </c>
-      <c r="P34" t="n">
+      <c r="AH34" t="n">
         <v>4</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="AI34" t="n">
         <v>301</v>
       </c>
-      <c r="R34" t="n">
+      <c r="AJ34" t="n">
         <v>35.39</v>
       </c>
-      <c r="S34" t="n">
+      <c r="AK34" t="n">
         <v>8.08</v>
       </c>
-      <c r="T34" t="n">
+      <c r="AL34" t="n">
         <v>22.27</v>
       </c>
-      <c r="U34" t="n">
+      <c r="AM34" t="n">
         <v>26.3</v>
       </c>
-      <c r="V34" t="n">
+      <c r="AN34" t="n">
         <v>27.84</v>
       </c>
-      <c r="W34" t="n">
+      <c r="AO34" t="n">
         <v>212.34</v>
-      </c>
-      <c r="X34" t="n">
-        <v>590.34</v>
       </c>
     </row>
   </sheetData>

--- a/main/paso1.xlsx
+++ b/main/paso1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO34"/>
+  <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,11 +634,6 @@
           <t>restaurantes</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>calculo_viaje</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -781,9 +776,6 @@
       <c r="AN2" t="n">
         <v>29.34</v>
       </c>
-      <c r="AO2" t="n">
-        <v>217.02</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -926,9 +918,6 @@
       <c r="AN3" t="n">
         <v>70.08</v>
       </c>
-      <c r="AO3" t="n">
-        <v>430.74</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1071,9 +1060,6 @@
       <c r="AN4" t="n">
         <v>35.98</v>
       </c>
-      <c r="AO4" t="n">
-        <v>198.72</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1216,9 +1202,6 @@
       <c r="AN5" t="n">
         <v>29.86</v>
       </c>
-      <c r="AO5" t="n">
-        <v>223.02</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1361,9 +1344,6 @@
       <c r="AN6" t="n">
         <v>95.14</v>
       </c>
-      <c r="AO6" t="n">
-        <v>488.28</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1506,9 +1486,6 @@
       <c r="AN7" t="n">
         <v>43.83</v>
       </c>
-      <c r="AO7" t="n">
-        <v>315.06</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1651,9 +1628,6 @@
       <c r="AN8" t="n">
         <v>51.24</v>
       </c>
-      <c r="AO8" t="n">
-        <v>306.06</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1796,9 +1770,6 @@
       <c r="AN9" t="n">
         <v>75.37</v>
       </c>
-      <c r="AO9" t="n">
-        <v>449.1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1941,9 +1912,6 @@
       <c r="AN10" t="n">
         <v>54.76</v>
       </c>
-      <c r="AO10" t="n">
-        <v>339.96</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2086,9 +2054,6 @@
       <c r="AN11" t="n">
         <v>82.65000000000001</v>
       </c>
-      <c r="AO11" t="n">
-        <v>452.1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2231,9 +2196,6 @@
       <c r="AN12" t="n">
         <v>75.72</v>
       </c>
-      <c r="AO12" t="n">
-        <v>415.5</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2376,9 +2338,6 @@
       <c r="AN13" t="n">
         <v>43.95</v>
       </c>
-      <c r="AO13" t="n">
-        <v>275.46</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2521,9 +2480,6 @@
       <c r="AN14" t="n">
         <v>23.67</v>
       </c>
-      <c r="AO14" t="n">
-        <v>189.48</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2666,9 +2622,6 @@
       <c r="AN15" t="n">
         <v>27.71</v>
       </c>
-      <c r="AO15" t="n">
-        <v>193.56</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2811,9 +2764,6 @@
       <c r="AN16" t="n">
         <v>83.48999999999999</v>
       </c>
-      <c r="AO16" t="n">
-        <v>448.98</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2956,9 +2906,6 @@
       <c r="AN17" t="n">
         <v>43.13</v>
       </c>
-      <c r="AO17" t="n">
-        <v>302.34</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3101,9 +3048,6 @@
       <c r="AN18" t="n">
         <v>33.25</v>
       </c>
-      <c r="AO18" t="n">
-        <v>270.72</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3246,9 +3190,6 @@
       <c r="AN19" t="n">
         <v>75.04000000000001</v>
       </c>
-      <c r="AO19" t="n">
-        <v>429.3</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3391,9 +3332,6 @@
       <c r="AN20" t="n">
         <v>63.56</v>
       </c>
-      <c r="AO20" t="n">
-        <v>405.72</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3536,9 +3474,6 @@
       <c r="AN21" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="AO21" t="n">
-        <v>437.82</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3681,9 +3616,6 @@
       <c r="AN22" t="n">
         <v>23.78</v>
       </c>
-      <c r="AO22" t="n">
-        <v>214.32</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3826,9 +3758,6 @@
       <c r="AN23" t="n">
         <v>40.36</v>
       </c>
-      <c r="AO23" t="n">
-        <v>295.08</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3971,9 +3900,6 @@
       <c r="AN24" t="n">
         <v>33.64</v>
       </c>
-      <c r="AO24" t="n">
-        <v>269.88</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4116,9 +4042,6 @@
       <c r="AN25" t="n">
         <v>77.91</v>
       </c>
-      <c r="AO25" t="n">
-        <v>436.92</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4261,9 +4184,6 @@
       <c r="AN26" t="n">
         <v>33.43</v>
       </c>
-      <c r="AO26" t="n">
-        <v>252.18</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4406,9 +4326,6 @@
       <c r="AN27" t="n">
         <v>111.85</v>
       </c>
-      <c r="AO27" t="n">
-        <v>611.16</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4551,9 +4468,6 @@
       <c r="AN28" t="n">
         <v>45.47</v>
       </c>
-      <c r="AO28" t="n">
-        <v>295.38</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4696,9 +4610,6 @@
       <c r="AN29" t="n">
         <v>96.08</v>
       </c>
-      <c r="AO29" t="n">
-        <v>516.54</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4841,9 +4752,6 @@
       <c r="AN30" t="n">
         <v>67.28</v>
       </c>
-      <c r="AO30" t="n">
-        <v>379.92</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4986,9 +4894,6 @@
       <c r="AN31" t="n">
         <v>111.53</v>
       </c>
-      <c r="AO31" t="n">
-        <v>605.9399999999999</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5131,9 +5036,6 @@
       <c r="AN32" t="n">
         <v>32.72</v>
       </c>
-      <c r="AO32" t="n">
-        <v>234.78</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5276,9 +5178,6 @@
       <c r="AN33" t="n">
         <v>32.26</v>
       </c>
-      <c r="AO33" t="n">
-        <v>218.7</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5420,9 +5319,6 @@
       </c>
       <c r="AN34" t="n">
         <v>27.84</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>212.34</v>
       </c>
     </row>
   </sheetData>
